--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="tblClassification" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,18 +567,18 @@
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -206,6 +211,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rythme </t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Rating Pending</t>
+  </si>
+  <si>
+    <t>Pas encore classifier</t>
   </si>
 </sst>
 </file>
@@ -546,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +656,17 @@
       </c>
       <c r="C7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tblClassification" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Pas encore classifier</t>
+  </si>
+  <si>
+    <t>RPG tour par tour</t>
+  </si>
+  <si>
+    <t>RPG Rogue-like tour par tour</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -881,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -913,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -921,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -929,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -937,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -945,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -953,7 +959,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -961,7 +967,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -969,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +983,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +1007,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,6 +1015,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -162,9 +162,6 @@
     <t>RPG Rogue-like</t>
   </si>
   <si>
-    <t>MMORPG</t>
-  </si>
-  <si>
     <t>RPG tactique</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>RPG Rogue-like tour par tour</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>RPG Gestion</t>
   </si>
 </sst>
 </file>
@@ -666,13 +669,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -871,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +922,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +930,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -951,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -959,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,7 +978,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -983,7 +986,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,7 +994,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,7 +1002,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1015,17 +1018,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="tblClassification" sheetId="1" r:id="rId1"/>
     <sheet name="tblGenre" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,9 +52,6 @@
     <t>Everyone 10+</t>
   </si>
   <si>
-    <t>E 10+</t>
-  </si>
-  <si>
     <t>Enfants de 10 ans et plus</t>
   </si>
   <si>
@@ -229,6 +221,9 @@
   </si>
   <si>
     <t>RPG Gestion</t>
+  </si>
+  <si>
+    <t>E10</t>
   </si>
 </sst>
 </file>
@@ -569,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,57 +620,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -687,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,13 +695,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -714,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +845,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -874,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -890,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -922,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -946,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -970,7 +965,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +973,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -986,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -994,7 +989,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,7 +997,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1010,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1018,7 +1013,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1026,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1042,7 +1037,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="tblClassification" sheetId="1" r:id="rId1"/>
-    <sheet name="tblGenre" sheetId="2" r:id="rId2"/>
+    <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
+    <sheet name="C tblTheme" sheetId="4" r:id="rId2"/>
+    <sheet name="C tblClassification" sheetId="1" r:id="rId3"/>
+    <sheet name="C tblMode" sheetId="5" r:id="rId4"/>
+    <sheet name="C tblGenre" sheetId="2" r:id="rId5"/>
+    <sheet name="B tblJeu" sheetId="6" r:id="rId6"/>
+    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="544">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -224,6 +229,1434 @@
   </si>
   <si>
     <t>E10</t>
+  </si>
+  <si>
+    <t>IDSysExp</t>
+  </si>
+  <si>
+    <t>CodeSysExp</t>
+  </si>
+  <si>
+    <t>NomSysExp</t>
+  </si>
+  <si>
+    <t>EditionSysExp</t>
+  </si>
+  <si>
+    <t>VersionSysExp</t>
+  </si>
+  <si>
+    <t>InfoSupSysExp</t>
+  </si>
+  <si>
+    <t>WinXPFam</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>Familiale</t>
+  </si>
+  <si>
+    <t>32bit</t>
+  </si>
+  <si>
+    <t>WinXPPro</t>
+  </si>
+  <si>
+    <t>Professionel</t>
+  </si>
+  <si>
+    <t>64bit</t>
+  </si>
+  <si>
+    <t>Win7Start</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>32bit Service Pack 1</t>
+  </si>
+  <si>
+    <t>Win7HomeBas</t>
+  </si>
+  <si>
+    <t>Home Basic</t>
+  </si>
+  <si>
+    <t>Win7HomePrem</t>
+  </si>
+  <si>
+    <t>Home Premium</t>
+  </si>
+  <si>
+    <t>Win7Pro</t>
+  </si>
+  <si>
+    <t>Home Professional</t>
+  </si>
+  <si>
+    <t>Win7Entr</t>
+  </si>
+  <si>
+    <t>Entreprise</t>
+  </si>
+  <si>
+    <t>Win7Ult</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>32bit Service Pack 2</t>
+  </si>
+  <si>
+    <t>64bit Service Pack 1</t>
+  </si>
+  <si>
+    <t>64bit Service Pack 2</t>
+  </si>
+  <si>
+    <t>Win8</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Win8Pro</t>
+  </si>
+  <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
+    <t>Win8Entr</t>
+  </si>
+  <si>
+    <t>Win8RT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Win8.1</t>
+  </si>
+  <si>
+    <t>Win8.1Pro</t>
+  </si>
+  <si>
+    <t>Win8.1Entr</t>
+  </si>
+  <si>
+    <t>Win8.1RT</t>
+  </si>
+  <si>
+    <t>Win10home</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Win10Pro</t>
+  </si>
+  <si>
+    <t>Win10Entr</t>
+  </si>
+  <si>
+    <t>Win10EntrLTSB</t>
+  </si>
+  <si>
+    <t>Entreprise LTSB</t>
+  </si>
+  <si>
+    <t>Win10Edu</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Win10Mob</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Win10MobEtr</t>
+  </si>
+  <si>
+    <t>Mobile Entreprise</t>
+  </si>
+  <si>
+    <t>Win10Core</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>XBoxOS</t>
+  </si>
+  <si>
+    <t>XBox OS</t>
+  </si>
+  <si>
+    <t>Xbox One</t>
+  </si>
+  <si>
+    <t>Système d'exploitation XBox One</t>
+  </si>
+  <si>
+    <t>Ps4OS</t>
+  </si>
+  <si>
+    <t>Orbis OS</t>
+  </si>
+  <si>
+    <t>Ps4</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Ps4</t>
+  </si>
+  <si>
+    <t>Ps3OS</t>
+  </si>
+  <si>
+    <t>Cell OS</t>
+  </si>
+  <si>
+    <t>Ps3</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Ps3</t>
+  </si>
+  <si>
+    <t>XBoxDash</t>
+  </si>
+  <si>
+    <t>Xbox 360 DashBoard</t>
+  </si>
+  <si>
+    <t>Xbox 360</t>
+  </si>
+  <si>
+    <t>Système d'exploitation XBox 360</t>
+  </si>
+  <si>
+    <t>WiiUSys</t>
+  </si>
+  <si>
+    <t>Wii U System Software</t>
+  </si>
+  <si>
+    <t>Wii U</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Wii U</t>
+  </si>
+  <si>
+    <t>3DSSys</t>
+  </si>
+  <si>
+    <t>3DS System Software</t>
+  </si>
+  <si>
+    <t>3DS</t>
+  </si>
+  <si>
+    <t>Système d'exploitation 3DS</t>
+  </si>
+  <si>
+    <t>iOS9</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Système d'exploitation pour mobile Apple</t>
+  </si>
+  <si>
+    <t>And5</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Lollipop 5.0</t>
+  </si>
+  <si>
+    <t>Système d'exploitation Android</t>
+  </si>
+  <si>
+    <t>iOS8</t>
+  </si>
+  <si>
+    <t>PSVitaOS</t>
+  </si>
+  <si>
+    <t>PlayStation Vita operating system</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Système d'exploitation PS Vita</t>
+  </si>
+  <si>
+    <t>OSX</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Système d'exploitation MAC</t>
+  </si>
+  <si>
+    <t>IdTheme</t>
+  </si>
+  <si>
+    <t>NomTheme</t>
+  </si>
+  <si>
+    <t>ComTheme</t>
+  </si>
+  <si>
+    <t>Abeilles</t>
+  </si>
+  <si>
+    <t>Abstrait</t>
+  </si>
+  <si>
+    <t>Adaptation littéraire</t>
+  </si>
+  <si>
+    <t>Affrontement guerrier</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Alpinisme</t>
+  </si>
+  <si>
+    <t>Amérique</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>Animaux</t>
+  </si>
+  <si>
+    <t>Animaux champêtres</t>
+  </si>
+  <si>
+    <t>Animaux domestiques</t>
+  </si>
+  <si>
+    <t>Animaux exotiques</t>
+  </si>
+  <si>
+    <t>Animaux insectes</t>
+  </si>
+  <si>
+    <t>Animaux marins</t>
+  </si>
+  <si>
+    <t>Anniversaire</t>
+  </si>
+  <si>
+    <t>Antiquité</t>
+  </si>
+  <si>
+    <t>Araignées</t>
+  </si>
+  <si>
+    <t>Archéologie</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Argentine</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Arts martiaux</t>
+  </si>
+  <si>
+    <t>Asie</t>
+  </si>
+  <si>
+    <t>Atlantide</t>
+  </si>
+  <si>
+    <t>Australie</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Avion</t>
+  </si>
+  <si>
+    <t>Avions</t>
+  </si>
+  <si>
+    <t>Ânes</t>
+  </si>
+  <si>
+    <t>Baleines</t>
+  </si>
+  <si>
+    <t>Banquise</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Base spatiale</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>Bergers</t>
+  </si>
+  <si>
+    <t>Billard</t>
+  </si>
+  <si>
+    <t>Boissons</t>
+  </si>
+  <si>
+    <t>Brocante</t>
+  </si>
+  <si>
+    <t>Cache-Cache</t>
+  </si>
+  <si>
+    <t>Cadeaux</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Cambriolage</t>
+  </si>
+  <si>
+    <t>Camions</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Canards</t>
+  </si>
+  <si>
+    <t>Caractère</t>
+  </si>
+  <si>
+    <t>Caraïbes</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Chameaux</t>
+  </si>
+  <si>
+    <t>Charbon</t>
+  </si>
+  <si>
+    <t>Chasse</t>
+  </si>
+  <si>
+    <t>Chasse au trésor</t>
+  </si>
+  <si>
+    <t>Chats</t>
+  </si>
+  <si>
+    <t>Château</t>
+  </si>
+  <si>
+    <t>Chevalerie</t>
+  </si>
+  <si>
+    <t>Chevaux</t>
+  </si>
+  <si>
+    <t>Chèvres</t>
+  </si>
+  <si>
+    <t>Chiens</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>Chocolat</t>
+  </si>
+  <si>
+    <t>Cinéma</t>
+  </si>
+  <si>
+    <t>Cirque</t>
+  </si>
+  <si>
+    <t>Clowns</t>
+  </si>
+  <si>
+    <t>Coccinelles</t>
+  </si>
+  <si>
+    <t>Cochons</t>
+  </si>
+  <si>
+    <t>Colonisation</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Confrontation</t>
+  </si>
+  <si>
+    <t>Conquête de l'Ouest</t>
+  </si>
+  <si>
+    <t>Conte</t>
+  </si>
+  <si>
+    <t>Contes</t>
+  </si>
+  <si>
+    <t>Corps humain</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Costumes / Déguisements</t>
+  </si>
+  <si>
+    <t>Couleurs</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Cowboys</t>
+  </si>
+  <si>
+    <t>Cowboys / Indiens</t>
+  </si>
+  <si>
+    <t>Crabes</t>
+  </si>
+  <si>
+    <t>Crevettes</t>
+  </si>
+  <si>
+    <t>Crocodiles</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Cuisine / Boisson</t>
+  </si>
+  <si>
+    <t>Culture / Agriculture</t>
+  </si>
+  <si>
+    <t>Culture générale</t>
+  </si>
+  <si>
+    <t>Danse</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>Défis</t>
+  </si>
+  <si>
+    <t>Dérive des continents</t>
+  </si>
+  <si>
+    <t>Désert</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Diable</t>
+  </si>
+  <si>
+    <t>Diamants</t>
+  </si>
+  <si>
+    <t>Dinosaures</t>
+  </si>
+  <si>
+    <t>Dragons</t>
+  </si>
+  <si>
+    <t>Duel</t>
+  </si>
+  <si>
+    <t>Eau</t>
+  </si>
+  <si>
+    <t>Egypte</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Enquête</t>
+  </si>
+  <si>
+    <t>Environnement Aquatique</t>
+  </si>
+  <si>
+    <t>Environnement Banquise</t>
+  </si>
+  <si>
+    <t>Environnement Château</t>
+  </si>
+  <si>
+    <t>Environnement Décharge publique</t>
+  </si>
+  <si>
+    <t>Environnement Désert</t>
+  </si>
+  <si>
+    <t>Environnement étang</t>
+  </si>
+  <si>
+    <t>Environnement Ferme</t>
+  </si>
+  <si>
+    <t>Environnement Grotte</t>
+  </si>
+  <si>
+    <t>Environnement Hotel / Restaurant / Café</t>
+  </si>
+  <si>
+    <t>Environnement Île</t>
+  </si>
+  <si>
+    <t>Environnement Jardin</t>
+  </si>
+  <si>
+    <t>Environnement Jungle / Forêt</t>
+  </si>
+  <si>
+    <t>Environnement Monastère</t>
+  </si>
+  <si>
+    <t>Environnement Montagne</t>
+  </si>
+  <si>
+    <t>Environnement Sous-Marin</t>
+  </si>
+  <si>
+    <t>Environnement Ville</t>
+  </si>
+  <si>
+    <t>Environnement Volcan</t>
+  </si>
+  <si>
+    <t>Environnement Zoo</t>
+  </si>
+  <si>
+    <t>Escalade</t>
+  </si>
+  <si>
+    <t>Escrime</t>
+  </si>
+  <si>
+    <t>Espace</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Espionnage</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>Extra-terrestres</t>
+  </si>
+  <si>
+    <t>Écologie</t>
+  </si>
+  <si>
+    <t>Écosse</t>
+  </si>
+  <si>
+    <t>Écureuils</t>
+  </si>
+  <si>
+    <t>Élevage</t>
+  </si>
+  <si>
+    <t>Éléphants</t>
+  </si>
+  <si>
+    <t>Énergie</t>
+  </si>
+  <si>
+    <t>Époque victorienne</t>
+  </si>
+  <si>
+    <t>Étang</t>
+  </si>
+  <si>
+    <t>Évasion</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
+  <si>
+    <t>Fantastique</t>
+  </si>
+  <si>
+    <t>Fantômes</t>
+  </si>
+  <si>
+    <t>Ferme</t>
+  </si>
+  <si>
+    <t>Feu d'artifice</t>
+  </si>
+  <si>
+    <t>Fête</t>
+  </si>
+  <si>
+    <t>Filles / Garçons</t>
+  </si>
+  <si>
+    <t>Fleurs</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Forêt</t>
+  </si>
+  <si>
+    <t>Formes</t>
+  </si>
+  <si>
+    <t>Formule 1</t>
+  </si>
+  <si>
+    <t>Fouille</t>
+  </si>
+  <si>
+    <t>Fourmis</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Fromage</t>
+  </si>
+  <si>
+    <t>Fruits / Légumes</t>
+  </si>
+  <si>
+    <t>Fusées</t>
+  </si>
+  <si>
+    <t>Gendarmes / Voleurs</t>
+  </si>
+  <si>
+    <t>Géographie</t>
+  </si>
+  <si>
+    <t>Girafes</t>
+  </si>
+  <si>
+    <t>Grenouilles</t>
+  </si>
+  <si>
+    <t>Grêce</t>
+  </si>
+  <si>
+    <t>Grotte</t>
+  </si>
+  <si>
+    <t>Guerre Mondiale</t>
+  </si>
+  <si>
+    <t>Heroic-fantaisy</t>
+  </si>
+  <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Histoire Antiquité</t>
+  </si>
+  <si>
+    <t>Histoire biblique</t>
+  </si>
+  <si>
+    <t>Histoire Guerre Mondiale</t>
+  </si>
+  <si>
+    <t>Histoire Médiévale</t>
+  </si>
+  <si>
+    <t>Histoire Renaissance</t>
+  </si>
+  <si>
+    <t>Histoire Sixties</t>
+  </si>
+  <si>
+    <t>Horreur</t>
+  </si>
+  <si>
+    <t>Hotel / Restaurant / Café</t>
+  </si>
+  <si>
+    <t>Improvisation</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Insectes</t>
+  </si>
+  <si>
+    <t>Invention</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Île</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Jardin</t>
+  </si>
+  <si>
+    <t>Jeux de cirque</t>
+  </si>
+  <si>
+    <t>Jeux vidéo</t>
+  </si>
+  <si>
+    <t>Joaillerie</t>
+  </si>
+  <si>
+    <t>Jungle / Forêt</t>
+  </si>
+  <si>
+    <t>Kermesse</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Labyinthe</t>
+  </si>
+  <si>
+    <t>Labyrinthe</t>
+  </si>
+  <si>
+    <t>Lapins</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>Lieu Afrique</t>
+  </si>
+  <si>
+    <t>Lieu Allemagne</t>
+  </si>
+  <si>
+    <t>Lieu Amérique</t>
+  </si>
+  <si>
+    <t>Lieu Amérique du Sud</t>
+  </si>
+  <si>
+    <t>Lieu Angleterre</t>
+  </si>
+  <si>
+    <t>Lieu Asie</t>
+  </si>
+  <si>
+    <t>Lieu Australie</t>
+  </si>
+  <si>
+    <t>Lieu Autriche</t>
+  </si>
+  <si>
+    <t>Lieu Belgique</t>
+  </si>
+  <si>
+    <t>Lieu Caraïbes</t>
+  </si>
+  <si>
+    <t>Lieu Ecosse</t>
+  </si>
+  <si>
+    <t>Lieu Espagne</t>
+  </si>
+  <si>
+    <t>Lieu Europe</t>
+  </si>
+  <si>
+    <t>Lieu France</t>
+  </si>
+  <si>
+    <t>Lieu Grêce</t>
+  </si>
+  <si>
+    <t>Lieu Italie</t>
+  </si>
+  <si>
+    <t>Lieu Méditérranée</t>
+  </si>
+  <si>
+    <t>Lieu Monde</t>
+  </si>
+  <si>
+    <t>Lieu Pacifique</t>
+  </si>
+  <si>
+    <t>Lieu Proche-Orient</t>
+  </si>
+  <si>
+    <t>Lieu Suisse</t>
+  </si>
+  <si>
+    <t>Linguistique</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Loups</t>
+  </si>
+  <si>
+    <t>Lune</t>
+  </si>
+  <si>
+    <t>Mafia</t>
+  </si>
+  <si>
+    <t>Magie / Sorcellerie</t>
+  </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>Marché / Bourse</t>
+  </si>
+  <si>
+    <t>Mer</t>
+  </si>
+  <si>
+    <t>Merveilles du monde</t>
+  </si>
+  <si>
+    <t>Médecine</t>
+  </si>
+  <si>
+    <t>Méditérranée</t>
+  </si>
+  <si>
+    <t>Mille et une nuits</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Monastère</t>
+  </si>
+  <si>
+    <t>Monde</t>
+  </si>
+  <si>
+    <t>Monstres</t>
+  </si>
+  <si>
+    <t>Montagne</t>
+  </si>
+  <si>
+    <t>Montgolfières</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>Mots / Lettres</t>
+  </si>
+  <si>
+    <t>Mouches</t>
+  </si>
+  <si>
+    <t>Moutons</t>
+  </si>
+  <si>
+    <t>Moyen-age</t>
+  </si>
+  <si>
+    <t>Musique</t>
+  </si>
+  <si>
+    <t>Musique / Chansons</t>
+  </si>
+  <si>
+    <t>Mythologie</t>
+  </si>
+  <si>
+    <t>Napoléon</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Naufrage</t>
+  </si>
+  <si>
+    <t>Neige</t>
+  </si>
+  <si>
+    <t>Nombres / Chiffres</t>
+  </si>
+  <si>
+    <t>Oiseaux</t>
+  </si>
+  <si>
+    <t>Ombres</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Pacifique</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Papillons</t>
+  </si>
+  <si>
+    <t>Peinture</t>
+  </si>
+  <si>
+    <t>Pêche</t>
+  </si>
+  <si>
+    <t>Photographie</t>
+  </si>
+  <si>
+    <t>Pierres précieuses</t>
+  </si>
+  <si>
+    <t>Pingouins</t>
+  </si>
+  <si>
+    <t>Piraterie</t>
+  </si>
+  <si>
+    <t>Pirates</t>
+  </si>
+  <si>
+    <t>Piscine</t>
+  </si>
+  <si>
+    <t>Pizzas</t>
+  </si>
+  <si>
+    <t>Plage</t>
+  </si>
+  <si>
+    <t>Poésie</t>
+  </si>
+  <si>
+    <t>Poissons</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>Politique</t>
+  </si>
+  <si>
+    <t>Pompiers</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Potion magique</t>
+  </si>
+  <si>
+    <t>Poules</t>
+  </si>
+  <si>
+    <t>Poulpes</t>
+  </si>
+  <si>
+    <t>Pôle Nord</t>
+  </si>
+  <si>
+    <t>Préhistoire</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>Proche-Orient</t>
+  </si>
+  <si>
+    <t>Recette</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Renaissance</t>
+  </si>
+  <si>
+    <t>Renards</t>
+  </si>
+  <si>
+    <t>Repas</t>
+  </si>
+  <si>
+    <t>Requins</t>
+  </si>
+  <si>
+    <t>Rêves</t>
+  </si>
+  <si>
+    <t>Rhinocéros</t>
+  </si>
+  <si>
+    <t>Rivière</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Ruée vers l'or</t>
+  </si>
+  <si>
+    <t>Saisons</t>
+  </si>
+  <si>
+    <t>Samourai</t>
+  </si>
+  <si>
+    <t>Science-Fiction</t>
+  </si>
+  <si>
+    <t>Senji</t>
+  </si>
+  <si>
+    <t>Serpents</t>
+  </si>
+  <si>
+    <t>Singes</t>
+  </si>
+  <si>
+    <t>Sixties</t>
+  </si>
+  <si>
+    <t>Soleil</t>
+  </si>
+  <si>
+    <t>Souris</t>
+  </si>
+  <si>
+    <t>Sous-marin</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Sport Arts martiaux</t>
+  </si>
+  <si>
+    <t>Sport Automobile</t>
+  </si>
+  <si>
+    <t>Sport Cyclisme</t>
+  </si>
+  <si>
+    <t>Sport Football</t>
+  </si>
+  <si>
+    <t>Sport Hippique</t>
+  </si>
+  <si>
+    <t>Sport Nautique</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>Taupes</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Théâtre</t>
+  </si>
+  <si>
+    <t>Tortues</t>
+  </si>
+  <si>
+    <t>Tourisme</t>
+  </si>
+  <si>
+    <t>Tournoi</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Transport aérien</t>
+  </si>
+  <si>
+    <t>Transport automobile</t>
+  </si>
+  <si>
+    <t>Transport ferroviaire</t>
+  </si>
+  <si>
+    <t>Transport marin</t>
+  </si>
+  <si>
+    <t>Transport spatial</t>
+  </si>
+  <si>
+    <t>Travail / Bureau</t>
+  </si>
+  <si>
+    <t>Urbanisme / Construction</t>
+  </si>
+  <si>
+    <t>Vacances</t>
+  </si>
+  <si>
+    <t>Vaches</t>
+  </si>
+  <si>
+    <t>Vaisseau spatial</t>
+  </si>
+  <si>
+    <t>Vautours</t>
+  </si>
+  <si>
+    <t>Vers</t>
+  </si>
+  <si>
+    <t>Vélo</t>
+  </si>
+  <si>
+    <t>Vêtements</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vocabulaire</t>
+  </si>
+  <si>
+    <t>Voitures</t>
+  </si>
+  <si>
+    <t>Volcan</t>
+  </si>
+  <si>
+    <t>Voyage</t>
+  </si>
+  <si>
+    <t>Voyage dans le temps</t>
+  </si>
+  <si>
+    <t>Voyance / Divination</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Zombies</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>IdMode</t>
+  </si>
+  <si>
+    <t>NomMode</t>
+  </si>
+  <si>
+    <t>DescMode</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les jeux solo se joue avec qu'un seul joueur, ne nécessite aucune connexion internet, sauf si spécifier </t>
+  </si>
+  <si>
+    <t>Multi local</t>
+  </si>
+  <si>
+    <t>Les jeux multi local ce joue a plusieur joueur sur la même plateforme de jeu, aucune connexion internet nécessaire, sauf si spécifier</t>
+  </si>
+  <si>
+    <t>Multi en ligne</t>
+  </si>
+  <si>
+    <t>les jeux en ligne nécessitant une connexion internet à haut débit</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>Les jeux massivement multijoueur en ligne nécessite une connexion internet haute débit et constante</t>
+  </si>
+  <si>
+    <t>IdJeu</t>
+  </si>
+  <si>
+    <t>NomJeu</t>
+  </si>
+  <si>
+    <t>DescJeu</t>
+  </si>
+  <si>
+    <t>Actif</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Darkest dungeon</t>
+  </si>
+  <si>
+    <t>Darkest Dungeon est un jeu dont l'intérêt repose sur le stress provoqué par l'inconnu. Le joueur devra y monter une équipe de héros et les mener dans des lieux toujours plus effrayants pour leur faire combattre des monstres, mais aussi leurs peurs.</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>Faster than Light. Le joueur a pour objectif de conduire son vaisseau d'un point A à un point B de la galaxie, en faisant face aux situations critiques qui se présentent à lui (attaques de pirates, dangers environnements), sur un mode aléatoire.</t>
+  </si>
+  <si>
+    <t>Halo 4 solo</t>
+  </si>
+  <si>
+    <t>Halo 4 est un jeu de tir en vue subjective sur Xbox 360. Septième jeu de la franchise Halo</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi local</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi en ligne</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 solo</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 est un jeu de course. Mario et ses amis s'y affrontent a bord de karts ou de motos sur 32 circuits comprenant aussi bien des passages sous l'eau ou dans les airs que des loopings. Douze joueurs peuvent s'affronter en ligne ou 4 en local.</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 multi local</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 multi en ligne</t>
+  </si>
+  <si>
+    <t>World of warcraft</t>
+  </si>
+  <si>
+    <t>World of Warcraft vous transporte dans le monde heroic-fantasy d'Azeroth où la guerre fait rage entre la Horde et l'Alliance. Affronter des hordes de monstres seul ou en groupe, constituer des guildes, et tellement plus encore.</t>
+  </si>
+  <si>
+    <t>World of warcraft : Cataclysm</t>
+  </si>
+  <si>
+    <t>La 3ème extension de World of Warcraft, Cataclysm. le grand retour du tout puissant Deathwing qui va entraîner dans son sillage un changement radical de la topographie des continents. Arriver jusqu'au niveau 85 avec 2 nouvelles races</t>
+  </si>
+  <si>
+    <t>NHL 15 solo</t>
+  </si>
+  <si>
+    <t>NHL 15 est une simulation de hockey sur glace. Ce nouvel épisode propose diverses améliorations physiques et graphiques, une foule d'aspect plus vivant, un nouveau commentateur ainsi que de nouvelles arènes exclusives.</t>
+  </si>
+  <si>
+    <t>E 10+</t>
+  </si>
+  <si>
+    <t>NHL 15 Multi local</t>
+  </si>
+  <si>
+    <t>NHL 15 multi en ligne</t>
+  </si>
+  <si>
+    <t>NHL 14 solo</t>
+  </si>
+  <si>
+    <t>NHL 14 est un jeu de hockey sur glace. Le joueur peut s'y prendre pour un professionnel et gérer sa propre carrière ou bien gérer l'avenir d'une franchise dans le mode DG. Des matchs old-school inspirés par NHL 94 sont également au programme.</t>
+  </si>
+  <si>
+    <t>NHL 14 Multi local</t>
+  </si>
+  <si>
+    <t>NHL 14 multi en ligne</t>
   </si>
 </sst>
 </file>
@@ -247,7 +1680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +1692,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,14 +1722,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +2022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,10 +2030,4165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C337"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,12 +6291,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,4 +6731,609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="247.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>537</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>537</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>537</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>537</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" t="s">
+        <v>541</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>537</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="556">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -1657,6 +1662,42 @@
   </si>
   <si>
     <t>NHL 14 multi en ligne</t>
+  </si>
+  <si>
+    <t>Le joueur ne décide pas des mouvement fait par le personnage</t>
+  </si>
+  <si>
+    <t>Les jeux de Vroum vroum</t>
+  </si>
+  <si>
+    <t>Un jeu où vous mourez à chaque tour</t>
+  </si>
+  <si>
+    <t>aussi appeller Shmup</t>
+  </si>
+  <si>
+    <t>Les FPS, First person shooter</t>
+  </si>
+  <si>
+    <t>Les TPS, Third person shooter</t>
+  </si>
+  <si>
+    <t>Une adaptation d'un roman sous format vidéoludique</t>
+  </si>
+  <si>
+    <t>Un jeu qui tourne autour des combats, gladiateur, guerre, etc</t>
+  </si>
+  <si>
+    <t>Un jeu où pratiquement  tout tourne autour des voiture</t>
+  </si>
+  <si>
+    <t>Je ne comprend pas ces quoi la diffèrence avec l'autre</t>
+  </si>
+  <si>
+    <t>Pour les jeu qui ne comporte que du billard, pas comme un mini-jeux</t>
+  </si>
+  <si>
+    <t>Les jeux avec des beaux chapeaux</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2032,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3470,13 +3511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3513,6 +3555,9 @@
       <c r="B4" t="s">
         <v>170</v>
       </c>
+      <c r="C4" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3521,6 +3566,9 @@
       <c r="B5" t="s">
         <v>171</v>
       </c>
+      <c r="C5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3610,7 +3658,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3618,7 +3666,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3626,7 +3674,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3634,7 +3682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3642,7 +3690,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3650,7 +3698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3658,7 +3706,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3666,7 +3714,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3674,7 +3722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3682,7 +3730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3690,7 +3738,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3698,15 +3746,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3714,7 +3765,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3722,15 +3773,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3738,7 +3792,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3746,7 +3800,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3754,7 +3808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3762,7 +3816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3770,7 +3824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3778,7 +3832,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3786,15 +3840,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3802,7 +3859,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3810,7 +3867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3818,7 +3875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3826,7 +3883,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3834,7 +3891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3842,7 +3899,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3850,7 +3907,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3858,7 +3915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6042,7 +6099,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6050,7 +6107,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6058,7 +6115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6066,7 +6123,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6074,7 +6131,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6082,7 +6139,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -6090,7 +6147,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -6098,7 +6155,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -6106,7 +6163,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6114,7 +6171,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6122,7 +6179,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -6130,7 +6187,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -6138,7 +6195,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -6146,7 +6203,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -6154,15 +6211,18 @@
         <v>499</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -6371,13 +6431,13 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
     <col min="6" max="6" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6399,6 +6459,9 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -6439,6 +6502,9 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
+      <c r="C7" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6447,6 +6513,9 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
+      <c r="C8" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6455,6 +6524,9 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
+      <c r="C9" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6463,6 +6535,9 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6512,7 +6587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6520,7 +6595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6528,7 +6603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6536,7 +6611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6544,7 +6619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6552,7 +6627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6560,7 +6635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6568,7 +6643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6576,7 +6651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6584,15 +6659,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6600,7 +6678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6608,7 +6686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6616,7 +6694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6624,7 +6702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6632,7 +6710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6737,7 +6815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -7151,7 +7229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
-    <sheet name="C tblTheme" sheetId="4" r:id="rId2"/>
-    <sheet name="C tblClassification" sheetId="1" r:id="rId3"/>
-    <sheet name="C tblMode" sheetId="5" r:id="rId4"/>
-    <sheet name="C tblGenre" sheetId="2" r:id="rId5"/>
-    <sheet name="B tblJeu" sheetId="6" r:id="rId6"/>
-    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId7"/>
+    <sheet name="tblMode" sheetId="11" r:id="rId1"/>
+    <sheet name="C tblSysExp" sheetId="3" r:id="rId2"/>
+    <sheet name="C tblTheme" sheetId="4" r:id="rId3"/>
+    <sheet name="C tblClassification" sheetId="1" r:id="rId4"/>
+    <sheet name="C tblMode" sheetId="5" r:id="rId5"/>
+    <sheet name="C tblGenre" sheetId="2" r:id="rId6"/>
+    <sheet name="B tblJeu" sheetId="6" r:id="rId7"/>
+    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId8"/>
+    <sheet name="tblVersion" sheetId="10" r:id="rId9"/>
+    <sheet name="tblJeuSemblable" sheetId="12" r:id="rId10"/>
+    <sheet name="tblPlateformeJeu" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="665">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -1698,6 +1702,333 @@
   </si>
   <si>
     <t>Les jeux avec des beaux chapeaux</t>
+  </si>
+  <si>
+    <t>CodeVersion</t>
+  </si>
+  <si>
+    <t>NomVersion</t>
+  </si>
+  <si>
+    <t>DescVersion</t>
+  </si>
+  <si>
+    <t>StadeDeveloppement</t>
+  </si>
+  <si>
+    <t>DateVersion</t>
+  </si>
+  <si>
+    <t>DateSortiePrevue</t>
+  </si>
+  <si>
+    <t>IDJeu</t>
+  </si>
+  <si>
+    <t>DarkDn01</t>
+  </si>
+  <si>
+    <t>darkest dungeon 1.0</t>
+  </si>
+  <si>
+    <t>1er version suite au financement kickstarter, version de départ</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>DarkDn02</t>
+  </si>
+  <si>
+    <t>darkest dungeon 1.1</t>
+  </si>
+  <si>
+    <t>2e version mise a jour des bug, ajoute de classe, bosse, ennemis, et nouveau niveau</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>FTL01</t>
+  </si>
+  <si>
+    <t>faster than light 1.0</t>
+  </si>
+  <si>
+    <t>1er version suite au financement kickstarter, version de départ, beaucoup de bug</t>
+  </si>
+  <si>
+    <t>FTL02</t>
+  </si>
+  <si>
+    <t>faster than light 1.1</t>
+  </si>
+  <si>
+    <t>2e versions, bug corriger, ajout de vaisseau et d'évènment aléatoire</t>
+  </si>
+  <si>
+    <t>FTL03</t>
+  </si>
+  <si>
+    <t>faster than light 1.2</t>
+  </si>
+  <si>
+    <t>3e versions final, dernier bug, ajout de vaisseau et d'évènment aléatoire</t>
+  </si>
+  <si>
+    <t>Halo4SS01</t>
+  </si>
+  <si>
+    <t>Halo 4 solo 1.0</t>
+  </si>
+  <si>
+    <t>1er version du solo de halo 4, bug nombreux</t>
+  </si>
+  <si>
+    <t>Halo4SS02</t>
+  </si>
+  <si>
+    <t>Halo 4 solo 1.1</t>
+  </si>
+  <si>
+    <t>2e version du solo de halo 4, bug corriger, nouvelle map</t>
+  </si>
+  <si>
+    <t>Halo4SS03</t>
+  </si>
+  <si>
+    <t>Halo 4 solo 1.2</t>
+  </si>
+  <si>
+    <t>3e version du solo de halo 4, nouvelle map et nouveau mode de jeux</t>
+  </si>
+  <si>
+    <t>Halo4ML01</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi local 1.0</t>
+  </si>
+  <si>
+    <t>1er version du Multi local de halo 4, bug nombreux</t>
+  </si>
+  <si>
+    <t>Halo4ML02</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi local 1.1</t>
+  </si>
+  <si>
+    <t>2e version du Multi local de halo 4, bug corriger, nouvelle map</t>
+  </si>
+  <si>
+    <t>Halo4ML03</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi local 1.2</t>
+  </si>
+  <si>
+    <t>3e version du Multi local de halo 4, nouvelle map et nouveau mode de jeux</t>
+  </si>
+  <si>
+    <t>Halo4MO01</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>1er version du Multi en ligne de halo 4, bug nombreux</t>
+  </si>
+  <si>
+    <t>Halo4MO02</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>2e version du Multi en ligne de halo 4, bug corriger, nouvelle map</t>
+  </si>
+  <si>
+    <t>Halo4MO03</t>
+  </si>
+  <si>
+    <t>Halo 4 Multi en ligne 1.2</t>
+  </si>
+  <si>
+    <t>3e version du Multi en ligne de halo 4, nouvelle map et nouveau mode de jeux</t>
+  </si>
+  <si>
+    <t>MKart8SS01</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 solo 1.0</t>
+  </si>
+  <si>
+    <t>1er version du solo de Mario Kart 8, bug nombreux</t>
+  </si>
+  <si>
+    <t>MKart8SS02</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 solo 1.1</t>
+  </si>
+  <si>
+    <t>2er version du solo de Mario Kart 8, ajout mode course, mini-jeux, etc</t>
+  </si>
+  <si>
+    <t>MKart8ML01</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Multi Local 1.0</t>
+  </si>
+  <si>
+    <t>1er version du Multi Local de Mario Kart 8, bug nombreux</t>
+  </si>
+  <si>
+    <t>MKart8ML02</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Multi Local 1.1</t>
+  </si>
+  <si>
+    <t>2er version du Multi Local de Mario Kart 8, ajout mode course, mini-jeux, etc</t>
+  </si>
+  <si>
+    <t>MKart8MO01</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Multi online 1.0</t>
+  </si>
+  <si>
+    <t>1er version du Multi en ligne de Mario Kart 8, bug nombreux</t>
+  </si>
+  <si>
+    <t>Max taille CodeVersion</t>
+  </si>
+  <si>
+    <t>MKart8MO02</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Multi online 1.1</t>
+  </si>
+  <si>
+    <t>2er version du Multi en ligne de Mario Kart 8, ajout mode course, mini-jeux, etc</t>
+  </si>
+  <si>
+    <t>WOW01</t>
+  </si>
+  <si>
+    <t>world of warcraft 1.0</t>
+  </si>
+  <si>
+    <t>1er version d'essaie du openworld, nombreux crash serveur et bug joueur</t>
+  </si>
+  <si>
+    <t>WOW02</t>
+  </si>
+  <si>
+    <t>world of warcraft 1.1</t>
+  </si>
+  <si>
+    <t>2e version, ajout des donjons, des évènement aléatoire, du craft et etc.</t>
+  </si>
+  <si>
+    <t>WOWCT01</t>
+  </si>
+  <si>
+    <t>world of warcraft CT  1.0</t>
+  </si>
+  <si>
+    <t>1e version d'extension, Refonte du monde, nouvelle classe, race, lieux, etc.</t>
+  </si>
+  <si>
+    <t>NHL15SS01</t>
+  </si>
+  <si>
+    <t>NHL 15 solo 1.0</t>
+  </si>
+  <si>
+    <t>1er version, nouveau joueur, peu de bug, ressemblance avec NHL 2014</t>
+  </si>
+  <si>
+    <t>NHL15SS02</t>
+  </si>
+  <si>
+    <t>NHL 15 solo 1.1</t>
+  </si>
+  <si>
+    <t>2e version, nouveau chandaille, nouveau commentateur</t>
+  </si>
+  <si>
+    <t>NHL15ML01</t>
+  </si>
+  <si>
+    <t>NHL 15 Multi Local 1.0</t>
+  </si>
+  <si>
+    <t>NHL15ML02</t>
+  </si>
+  <si>
+    <t>NHL 15 Multi Local 1.1</t>
+  </si>
+  <si>
+    <t>NHL15MO01</t>
+  </si>
+  <si>
+    <t>NHL 15 Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>NHL15MO02</t>
+  </si>
+  <si>
+    <t>NHL 15 Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>NHL14SS01</t>
+  </si>
+  <si>
+    <t>NHL 14 solo 1.0</t>
+  </si>
+  <si>
+    <t>1er version, nouveau joueur, peu de bug, ressemblance avec NHL 2013</t>
+  </si>
+  <si>
+    <t>NHL14SS02</t>
+  </si>
+  <si>
+    <t>NHL 14 solo 1.1</t>
+  </si>
+  <si>
+    <t>NHL14ML01</t>
+  </si>
+  <si>
+    <t>NHL 14 Multi Local 1.0</t>
+  </si>
+  <si>
+    <t>NHL14ML02</t>
+  </si>
+  <si>
+    <t>NHL 14 Multi Local 1.1</t>
+  </si>
+  <si>
+    <t>NHL14MO01</t>
+  </si>
+  <si>
+    <t>NHL 14 Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>NHL14MO02</t>
+  </si>
+  <si>
+    <t>NHL 14 Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>IdJeuBase</t>
+  </si>
+  <si>
+    <t>IdJeuSemblable</t>
+  </si>
+  <si>
+    <t>IdPlateforme</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +2052,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1739,8 +2070,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1778,17 +2121,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2071,9 +2504,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3507,11 +4530,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView topLeftCell="A296" workbookViewId="0">
       <selection activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
@@ -6243,7 +7266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6351,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6426,11 +7449,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6811,7 +7834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -7225,193 +8248,1052 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>171</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>163</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>288</v>
+      </c>
+      <c r="B4">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>320</v>
+      </c>
+      <c r="B5">
         <v>2</v>
-      </c>
-      <c r="B5">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
         <v>3</v>
-      </c>
-      <c r="B6">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>288</v>
+      </c>
+      <c r="B7">
         <v>3</v>
-      </c>
-      <c r="B7">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
         <v>4</v>
-      </c>
-      <c r="B8">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>288</v>
+      </c>
+      <c r="B9">
         <v>4</v>
-      </c>
-      <c r="B9">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
         <v>5</v>
-      </c>
-      <c r="B10">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>288</v>
+      </c>
+      <c r="B11">
         <v>5</v>
-      </c>
-      <c r="B11">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
         <v>6</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13">
         <v>7</v>
-      </c>
-      <c r="B13">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>8</v>
-      </c>
-      <c r="B14">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>163</v>
+      </c>
+      <c r="B15">
         <v>9</v>
-      </c>
-      <c r="B15">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>163</v>
+      </c>
+      <c r="B16">
         <v>10</v>
-      </c>
-      <c r="B16">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>296</v>
+      </c>
+      <c r="B17">
         <v>11</v>
-      </c>
-      <c r="B17">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>296</v>
+      </c>
+      <c r="B18">
         <v>12</v>
-      </c>
-      <c r="B18">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>296</v>
+      </c>
+      <c r="B19">
         <v>13</v>
-      </c>
-      <c r="B19">
-        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>296</v>
+      </c>
+      <c r="B20">
         <v>14</v>
-      </c>
-      <c r="B20">
-        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>296</v>
+      </c>
+      <c r="B21">
         <v>15</v>
-      </c>
-      <c r="B21">
-        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>296</v>
+      </c>
+      <c r="B22">
         <v>16</v>
-      </c>
-      <c r="B22">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2">
+        <v>20140214</v>
+      </c>
+      <c r="F2">
+        <v>20151212</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3">
+        <v>20150720</v>
+      </c>
+      <c r="F3">
+        <v>20151212</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4">
+        <v>20130916</v>
+      </c>
+      <c r="F4">
+        <v>20140320</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5">
+        <v>20140101</v>
+      </c>
+      <c r="F5">
+        <v>20140320</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6">
+        <v>20140220</v>
+      </c>
+      <c r="F6">
+        <v>20140320</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7">
+        <v>20111215</v>
+      </c>
+      <c r="F7">
+        <v>20121112</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8">
+        <v>20120210</v>
+      </c>
+      <c r="F8">
+        <v>20121112</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9">
+        <v>20120620</v>
+      </c>
+      <c r="F9">
+        <v>20121112</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10">
+        <v>20111215</v>
+      </c>
+      <c r="F10">
+        <v>20121112</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E11">
+        <v>20120210</v>
+      </c>
+      <c r="F11">
+        <v>20121112</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12">
+        <v>20120620</v>
+      </c>
+      <c r="F12">
+        <v>20121112</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D13" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13">
+        <v>20111215</v>
+      </c>
+      <c r="F13">
+        <v>20121112</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14">
+        <v>20120210</v>
+      </c>
+      <c r="F14">
+        <v>20121112</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15">
+        <v>20120620</v>
+      </c>
+      <c r="F15">
+        <v>20121112</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E16">
+        <v>20130105</v>
+      </c>
+      <c r="F16">
+        <v>20140530</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E17">
+        <v>20140110</v>
+      </c>
+      <c r="F17">
+        <v>20140530</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>570</v>
+      </c>
+      <c r="E18">
+        <v>20130105</v>
+      </c>
+      <c r="F18">
+        <v>20140530</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E19">
+        <v>20140110</v>
+      </c>
+      <c r="F19">
+        <v>20140530</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E20">
+        <v>20130105</v>
+      </c>
+      <c r="F20">
+        <v>20140530</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>624</v>
+      </c>
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E21">
+        <v>20140110</v>
+      </c>
+      <c r="F21">
+        <v>20140530</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="s">
+        <v>628</v>
+      </c>
+      <c r="D22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22">
+        <v>20001103</v>
+      </c>
+      <c r="F22">
+        <v>20050211</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E23">
+        <v>20030115</v>
+      </c>
+      <c r="F23">
+        <v>20050211</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" t="s">
+        <v>634</v>
+      </c>
+      <c r="D24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E24">
+        <v>20081201</v>
+      </c>
+      <c r="F24">
+        <v>20101207</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B25" t="s">
+        <v>636</v>
+      </c>
+      <c r="C25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E25">
+        <v>20130905</v>
+      </c>
+      <c r="F25">
+        <v>20140912</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D26" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26">
+        <v>20131206</v>
+      </c>
+      <c r="F26">
+        <v>20140912</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B27" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" t="s">
+        <v>637</v>
+      </c>
+      <c r="D27" t="s">
+        <v>570</v>
+      </c>
+      <c r="E27">
+        <v>20130905</v>
+      </c>
+      <c r="F27">
+        <v>20140912</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" t="s">
+        <v>644</v>
+      </c>
+      <c r="C28" t="s">
+        <v>640</v>
+      </c>
+      <c r="D28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E28">
+        <v>20131206</v>
+      </c>
+      <c r="F28">
+        <v>20140912</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C29" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29">
+        <v>20130905</v>
+      </c>
+      <c r="F29">
+        <v>20140912</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>647</v>
+      </c>
+      <c r="B30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30">
+        <v>20131206</v>
+      </c>
+      <c r="F30">
+        <v>20140912</v>
+      </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E31">
+        <v>20120905</v>
+      </c>
+      <c r="F31">
+        <v>20130913</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C32" t="s">
+        <v>640</v>
+      </c>
+      <c r="D32" t="s">
+        <v>570</v>
+      </c>
+      <c r="E32">
+        <v>20121206</v>
+      </c>
+      <c r="F32">
+        <v>20130913</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>654</v>
+      </c>
+      <c r="B33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" t="s">
+        <v>651</v>
+      </c>
+      <c r="D33" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33">
+        <v>20120905</v>
+      </c>
+      <c r="F33">
+        <v>20130913</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>656</v>
+      </c>
+      <c r="B34" t="s">
+        <v>657</v>
+      </c>
+      <c r="C34" t="s">
+        <v>640</v>
+      </c>
+      <c r="D34" t="s">
+        <v>570</v>
+      </c>
+      <c r="E34">
+        <v>20121206</v>
+      </c>
+      <c r="F34">
+        <v>20130913</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>658</v>
+      </c>
+      <c r="B35" t="s">
+        <v>659</v>
+      </c>
+      <c r="C35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35">
+        <v>20120905</v>
+      </c>
+      <c r="F35">
+        <v>20130913</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>660</v>
+      </c>
+      <c r="B36" t="s">
+        <v>661</v>
+      </c>
+      <c r="C36" t="s">
+        <v>640</v>
+      </c>
+      <c r="D36" t="s">
+        <v>570</v>
+      </c>
+      <c r="E36">
+        <v>20121206</v>
+      </c>
+      <c r="F36">
+        <v>20130913</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tblMode" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="665">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2705,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7451,10 +7451,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7818,14 +7818,6 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7838,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8006,7 +7998,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8029,7 +8021,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -8052,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>3</v>

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="tblMode" sheetId="11" r:id="rId1"/>
-    <sheet name="C tblSysExp" sheetId="3" r:id="rId2"/>
-    <sheet name="C tblTheme" sheetId="4" r:id="rId3"/>
-    <sheet name="C tblClassification" sheetId="1" r:id="rId4"/>
-    <sheet name="C tblMode" sheetId="5" r:id="rId5"/>
-    <sheet name="C tblGenre" sheetId="2" r:id="rId6"/>
-    <sheet name="B tblJeu" sheetId="6" r:id="rId7"/>
-    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId8"/>
-    <sheet name="tblVersion" sheetId="10" r:id="rId9"/>
-    <sheet name="tblJeuSemblable" sheetId="12" r:id="rId10"/>
-    <sheet name="tblPlateformeJeu" sheetId="13" r:id="rId11"/>
+    <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
+    <sheet name="C tblTheme" sheetId="4" r:id="rId2"/>
+    <sheet name="C tblClassification" sheetId="1" r:id="rId3"/>
+    <sheet name="C tblMode" sheetId="5" r:id="rId4"/>
+    <sheet name="C tblGenre" sheetId="2" r:id="rId5"/>
+    <sheet name="B tblJeu" sheetId="6" r:id="rId6"/>
+    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId7"/>
+    <sheet name="B tblVersion" sheetId="10" r:id="rId8"/>
+    <sheet name="B tblJeuSemblable" sheetId="12" r:id="rId9"/>
+    <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="665">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2496,7 +2490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2504,600 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <v>16</v>
-      </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>16</v>
-      </c>
-      <c r="B45">
-        <v>15</v>
-      </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>16</v>
-      </c>
-      <c r="C46" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,7 +3934,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
@@ -7266,7 +7061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7374,7 +7169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -7449,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -7826,11 +7621,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -8240,7 +8035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -8431,7 +8226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -9288,4 +9083,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\Projet\Sprint 1\Package 1\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
@@ -17,6 +22,9 @@
     <sheet name="B tblVersion" sheetId="10" r:id="rId8"/>
     <sheet name="B tblJeuSemblable" sheetId="12" r:id="rId9"/>
     <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId10"/>
+    <sheet name="C tblPlateformeSysExp" sheetId="14" r:id="rId11"/>
+    <sheet name="C tblPlateforme" sheetId="15" r:id="rId12"/>
+    <sheet name="C tblCategorie" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="813">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2023,13 +2031,457 @@
   </si>
   <si>
     <t>IdPlateforme</t>
+  </si>
+  <si>
+    <t>IdSysExp</t>
+  </si>
+  <si>
+    <t>PS4, Xbox One, Wii U</t>
+  </si>
+  <si>
+    <t>Console de salon</t>
+  </si>
+  <si>
+    <t>ConSal</t>
+  </si>
+  <si>
+    <t>PS Vita, 3DS</t>
+  </si>
+  <si>
+    <t>Console Portative</t>
+  </si>
+  <si>
+    <t>ConPort</t>
+  </si>
+  <si>
+    <t>Tablette Windows,Ipad, Ipad2,Nexus 4, Nexus 5,Galaxy Tab 4, Galaxy Tab 3, Galaxy Tab S, Galaxy Tab A, etc.</t>
+  </si>
+  <si>
+    <t>Tablette intelligente</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Ordinateur de Bureau</t>
+  </si>
+  <si>
+    <t>PCBur</t>
+  </si>
+  <si>
+    <t>Ordinateur Portable</t>
+  </si>
+  <si>
+    <t>PCPort</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S6, Galaxy Note 5,Iphone 5, Iphone 6</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent</t>
+  </si>
+  <si>
+    <t>CommentaireCategorie</t>
+  </si>
+  <si>
+    <t>DescCategorie</t>
+  </si>
+  <si>
+    <t>CodeCategorie</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Alienware15</t>
+  </si>
+  <si>
+    <t>4e génération Intel Core jusqu'à i7</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>DDR4 de 8 Go 2133MHz (4Gox2)</t>
+  </si>
+  <si>
+    <t>Disque dur SATA de 1 To à 7 200 tr/min et 6 Gbit/s</t>
+  </si>
+  <si>
+    <t>Portable Élite</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® GTX 965M with 2GB GDDR5</t>
+  </si>
+  <si>
+    <t>OptiPlex</t>
+  </si>
+  <si>
+    <t>OptiPlex 3030 tout-en-un</t>
+  </si>
+  <si>
+    <t>Intel® Celeron® G1840</t>
+  </si>
+  <si>
+    <t>Intel Core</t>
+  </si>
+  <si>
+    <t>DDR3L 4 Go3 à 1600 MHz</t>
+  </si>
+  <si>
+    <t>Disque dur de 500Go, 7200 t/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinateur d'entreprise  </t>
+  </si>
+  <si>
+    <t>Carte graphique Intel® intégrée</t>
+  </si>
+  <si>
+    <t>Aspire</t>
+  </si>
+  <si>
+    <t>Ordinateur Aspire TC d'Acer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core i5 4e génération d'Intel </t>
+  </si>
+  <si>
+    <t>Aspire TC, Acer</t>
+  </si>
+  <si>
+    <t>8 Go de mémoire vive</t>
+  </si>
+  <si>
+    <t>Disque dur de 1 To</t>
+  </si>
+  <si>
+    <t>Ordinateur moins performante</t>
+  </si>
+  <si>
+    <t>carte graph. HD 4600 Intel</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S5</t>
+  </si>
+  <si>
+    <t>2,5 GHz Quadricoeur</t>
+  </si>
+  <si>
+    <t>Qualcomm MSM8974AC Snapdragon 801</t>
+  </si>
+  <si>
+    <t>16 Go</t>
+  </si>
+  <si>
+    <t>2 Go</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent Android de petit format</t>
+  </si>
+  <si>
+    <t>Micro-SIM (3FF)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S6</t>
+  </si>
+  <si>
+    <t>octocœur 2.1GHz de 64 bits</t>
+  </si>
+  <si>
+    <t>Exynos 7420</t>
+  </si>
+  <si>
+    <t>32 Go</t>
+  </si>
+  <si>
+    <t>3 Go</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent Android de plus gros format</t>
+  </si>
+  <si>
+    <t>Nano SIM</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>IPhone 5s</t>
+  </si>
+  <si>
+    <t>Double coeur 1.3 GHz Cyclone</t>
+  </si>
+  <si>
+    <t>Puce A7 à architecture 64 bits Coprocesseur de mouvement M7</t>
+  </si>
+  <si>
+    <t>1 Go DDR3</t>
+  </si>
+  <si>
+    <t>16-32 Go</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent Apple d'une version antérieur</t>
+  </si>
+  <si>
+    <t>Nano-SIM</t>
+  </si>
+  <si>
+    <t>IPhone 6</t>
+  </si>
+  <si>
+    <t>Double coeur 1.4 GHz Cyclone</t>
+  </si>
+  <si>
+    <t>Puce A8 à architecture 64 bits Coprocesseur de mouvement M8</t>
+  </si>
+  <si>
+    <t>16-64 Go</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent Apple petit format</t>
+  </si>
+  <si>
+    <t>IPhone 6 Plus</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent Apple de format Moyen</t>
+  </si>
+  <si>
+    <t>Ipad Air</t>
+  </si>
+  <si>
+    <t>Puce A7 à architecture 64 bits</t>
+  </si>
+  <si>
+    <t>Tablette Apple</t>
+  </si>
+  <si>
+    <t>WinSurf</t>
+  </si>
+  <si>
+    <t>Surface Windows</t>
+  </si>
+  <si>
+    <t>NVIDIA TEGRA 3 Quad Core CPU 1.30 GHz</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>2Go</t>
+  </si>
+  <si>
+    <t>Tablette qui contient Windows 8</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A</t>
+  </si>
+  <si>
+    <t>quadruple coeur APQ 8016 de 1,2 GHz</t>
+  </si>
+  <si>
+    <t>Galaxy Tab motherboard</t>
+  </si>
+  <si>
+    <t>1.5Go</t>
+  </si>
+  <si>
+    <t>128 Go</t>
+  </si>
+  <si>
+    <t>Tablette Android de Grand format</t>
+  </si>
+  <si>
+    <t>Contient une plus grande memoire dû à sa carte mémoire</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>Playstation 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low power x86-64 AMD “Jaguar”, 8 cores    </t>
+  </si>
+  <si>
+    <t>PS4 motherboard</t>
+  </si>
+  <si>
+    <t>GDDR5 8Go</t>
+  </si>
+  <si>
+    <t>500 Go</t>
+  </si>
+  <si>
+    <t>Console salon de Sony la plus récente</t>
+  </si>
+  <si>
+    <t>PSVita</t>
+  </si>
+  <si>
+    <t>Playstation Vita</t>
+  </si>
+  <si>
+    <t>arm cortex A9 quad core up to 2ghz</t>
+  </si>
+  <si>
+    <t>PS Vita motherboard</t>
+  </si>
+  <si>
+    <t>512 Mo</t>
+  </si>
+  <si>
+    <t>4-32 Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Console portative de Sonyqui peut se connecter sur le PlayStation Store </t>
+  </si>
+  <si>
+    <t>XboxOne</t>
+  </si>
+  <si>
+    <t>8 Core AMD custom 1.75 GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMD "Jaguar" Accelerated Processing Unit</t>
+  </si>
+  <si>
+    <t>8Go DDR3</t>
+  </si>
+  <si>
+    <t>Console salon de Microsoft la plus récente</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Playstation 3</t>
+  </si>
+  <si>
+    <t>Cell Broadband Engine</t>
+  </si>
+  <si>
+    <t>PS3 motherboard</t>
+  </si>
+  <si>
+    <t>256 Mo</t>
+  </si>
+  <si>
+    <t>120 Go</t>
+  </si>
+  <si>
+    <t>Console salon de Sony</t>
+  </si>
+  <si>
+    <t>Xbox360</t>
+  </si>
+  <si>
+    <t>triple coeur 64-bit</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>512 Mo de GDDR3</t>
+  </si>
+  <si>
+    <t>250 Go</t>
+  </si>
+  <si>
+    <t>Console salon de Microsoft</t>
+  </si>
+  <si>
+    <t>WiiU</t>
+  </si>
+  <si>
+    <t>multicœur de type IBM Power</t>
+  </si>
+  <si>
+    <t>Wii U Mainboard PCB</t>
+  </si>
+  <si>
+    <t>2 Go de DDR3</t>
+  </si>
+  <si>
+    <t>8-32 Go</t>
+  </si>
+  <si>
+    <t>Console Nintendo la plus récente</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>Intel Core i5 de quatrième génération</t>
+  </si>
+  <si>
+    <t>Intel 20" EMC 2133</t>
+  </si>
+  <si>
+    <t>8 Go</t>
+  </si>
+  <si>
+    <t>3 To</t>
+  </si>
+  <si>
+    <t>Ordinateur Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM11 MPCore-based dual-core </t>
+  </si>
+  <si>
+    <t>3DS motherboard</t>
+  </si>
+  <si>
+    <t>32 Mo</t>
+  </si>
+  <si>
+    <t>128 Mo</t>
+  </si>
+  <si>
+    <t>Console Nintendo qui utilise le 3D</t>
+  </si>
+  <si>
+    <t>C'est la petite version de 3DS</t>
+  </si>
+  <si>
+    <t>InfoSupPlateforme</t>
+  </si>
+  <si>
+    <t>DescPlateforme</t>
+  </si>
+  <si>
+    <t>Stockage</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>CarteMere</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>NomPlateforme</t>
+  </si>
+  <si>
+    <t>CodePlateforme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,8 +2497,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E3337"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2076,8 +2564,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2193,12 +2686,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2217,8 +2726,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Commentaire" xfId="2" builtinId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vérification" xfId="1" builtinId="23"/>
   </cellStyles>
@@ -2490,7 +3012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3938,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4322,6 +4844,978 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.77734375" customWidth="1"/>
+    <col min="8" max="8" width="60" customWidth="1"/>
+    <col min="9" max="9" width="49" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I2" t="s">
+        <v>691</v>
+      </c>
+      <c r="K2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G3" t="s">
+        <v>697</v>
+      </c>
+      <c r="H3" t="s">
+        <v>698</v>
+      </c>
+      <c r="I3" t="s">
+        <v>699</v>
+      </c>
+      <c r="K3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="H4" t="s">
+        <v>706</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="K4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I5" t="s">
+        <v>715</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="H6" t="s">
+        <v>721</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E7" t="s">
+        <v>726</v>
+      </c>
+      <c r="F7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G7" t="s">
+        <v>728</v>
+      </c>
+      <c r="H7" t="s">
+        <v>729</v>
+      </c>
+      <c r="I7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F8" t="s">
+        <v>727</v>
+      </c>
+      <c r="G8" t="s">
+        <v>734</v>
+      </c>
+      <c r="H8" t="s">
+        <v>735</v>
+      </c>
+      <c r="I8" t="s">
+        <v>730</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E9" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" t="s">
+        <v>727</v>
+      </c>
+      <c r="G9" t="s">
+        <v>734</v>
+      </c>
+      <c r="H9" t="s">
+        <v>737</v>
+      </c>
+      <c r="I9" t="s">
+        <v>730</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" t="s">
+        <v>725</v>
+      </c>
+      <c r="E10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G10" t="s">
+        <v>728</v>
+      </c>
+      <c r="H10" t="s">
+        <v>740</v>
+      </c>
+      <c r="I10" t="s">
+        <v>687</v>
+      </c>
+      <c r="K10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E11" t="s">
+        <v>744</v>
+      </c>
+      <c r="F11" t="s">
+        <v>745</v>
+      </c>
+      <c r="G11" t="s">
+        <v>719</v>
+      </c>
+      <c r="H11" t="s">
+        <v>746</v>
+      </c>
+      <c r="I11" t="s">
+        <v>687</v>
+      </c>
+      <c r="K11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E12" t="s">
+        <v>749</v>
+      </c>
+      <c r="F12" t="s">
+        <v>750</v>
+      </c>
+      <c r="G12" t="s">
+        <v>751</v>
+      </c>
+      <c r="H12" t="s">
+        <v>752</v>
+      </c>
+      <c r="I12" t="s">
+        <v>753</v>
+      </c>
+      <c r="K12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D13" t="s">
+        <v>756</v>
+      </c>
+      <c r="E13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G13" t="s">
+        <v>759</v>
+      </c>
+      <c r="H13" t="s">
+        <v>760</v>
+      </c>
+      <c r="I13" t="s">
+        <v>687</v>
+      </c>
+      <c r="K13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14" t="s">
+        <v>762</v>
+      </c>
+      <c r="D14" t="s">
+        <v>763</v>
+      </c>
+      <c r="E14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F14" t="s">
+        <v>765</v>
+      </c>
+      <c r="G14" t="s">
+        <v>766</v>
+      </c>
+      <c r="H14" t="s">
+        <v>767</v>
+      </c>
+      <c r="I14" t="s">
+        <v>687</v>
+      </c>
+      <c r="K14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>769</v>
+      </c>
+      <c r="E15" t="s">
+        <v>770</v>
+      </c>
+      <c r="F15" t="s">
+        <v>771</v>
+      </c>
+      <c r="G15" t="s">
+        <v>759</v>
+      </c>
+      <c r="H15" t="s">
+        <v>772</v>
+      </c>
+      <c r="I15" t="s">
+        <v>687</v>
+      </c>
+      <c r="K15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>773</v>
+      </c>
+      <c r="C16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" t="s">
+        <v>777</v>
+      </c>
+      <c r="G16" t="s">
+        <v>778</v>
+      </c>
+      <c r="H16" t="s">
+        <v>779</v>
+      </c>
+      <c r="I16" t="s">
+        <v>687</v>
+      </c>
+      <c r="K16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>780</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>781</v>
+      </c>
+      <c r="E17" t="s">
+        <v>782</v>
+      </c>
+      <c r="F17" t="s">
+        <v>783</v>
+      </c>
+      <c r="G17" t="s">
+        <v>784</v>
+      </c>
+      <c r="H17" t="s">
+        <v>785</v>
+      </c>
+      <c r="I17" t="s">
+        <v>687</v>
+      </c>
+      <c r="K17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C18" t="s">
+        <v>786</v>
+      </c>
+      <c r="D18" t="s">
+        <v>787</v>
+      </c>
+      <c r="E18" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" t="s">
+        <v>789</v>
+      </c>
+      <c r="G18" t="s">
+        <v>790</v>
+      </c>
+      <c r="H18" t="s">
+        <v>791</v>
+      </c>
+      <c r="K18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>792</v>
+      </c>
+      <c r="C19" t="s">
+        <v>793</v>
+      </c>
+      <c r="D19" t="s">
+        <v>794</v>
+      </c>
+      <c r="E19" t="s">
+        <v>795</v>
+      </c>
+      <c r="F19" t="s">
+        <v>796</v>
+      </c>
+      <c r="G19" t="s">
+        <v>797</v>
+      </c>
+      <c r="H19" t="s">
+        <v>798</v>
+      </c>
+      <c r="I19" t="s">
+        <v>687</v>
+      </c>
+      <c r="K19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>799</v>
+      </c>
+      <c r="E20" t="s">
+        <v>800</v>
+      </c>
+      <c r="F20" t="s">
+        <v>801</v>
+      </c>
+      <c r="G20" t="s">
+        <v>802</v>
+      </c>
+      <c r="H20" t="s">
+        <v>803</v>
+      </c>
+      <c r="I20" t="s">
+        <v>804</v>
+      </c>
+      <c r="K20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Sprint 1/Package 1/Documentation/P01_JE.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\Projet\Sprint 1\Package 1\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="730" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9348" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C tblSysExp" sheetId="3" r:id="rId1"/>
-    <sheet name="C tblTheme" sheetId="4" r:id="rId2"/>
-    <sheet name="C tblClassification" sheetId="1" r:id="rId3"/>
-    <sheet name="C tblMode" sheetId="5" r:id="rId4"/>
-    <sheet name="C tblGenre" sheetId="2" r:id="rId5"/>
-    <sheet name="B tblJeu" sheetId="6" r:id="rId6"/>
-    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId7"/>
-    <sheet name="B tblVersion" sheetId="10" r:id="rId8"/>
-    <sheet name="B tblJeuSemblable" sheetId="12" r:id="rId9"/>
-    <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId10"/>
-    <sheet name="C tblPlateformeSysExp" sheetId="14" r:id="rId11"/>
-    <sheet name="C tblPlateforme" sheetId="15" r:id="rId12"/>
-    <sheet name="C tblCategorie" sheetId="16" r:id="rId13"/>
+    <sheet name="C tblCategorie" sheetId="16" r:id="rId2"/>
+    <sheet name="C tblTheme" sheetId="4" r:id="rId3"/>
+    <sheet name="C tblClassification" sheetId="1" r:id="rId4"/>
+    <sheet name="C tblMode" sheetId="5" r:id="rId5"/>
+    <sheet name="C tblGenre" sheetId="2" r:id="rId6"/>
+    <sheet name="B tblJeu" sheetId="6" r:id="rId7"/>
+    <sheet name="B tblThemeJeu" sheetId="7" r:id="rId8"/>
+    <sheet name="B tblVersion" sheetId="10" r:id="rId9"/>
+    <sheet name="B tblJeuSemblable" sheetId="12" r:id="rId10"/>
+    <sheet name="B tblPlateformeJeu" sheetId="13" r:id="rId11"/>
+    <sheet name="C tblPlateformeSysExp" sheetId="14" r:id="rId12"/>
+    <sheet name="C tblPlateforme" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="814">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -2475,6 +2470,9 @@
   </si>
   <si>
     <t>CodePlateforme</t>
+  </si>
+  <si>
+    <t>Lieu Caraïbes Plage</t>
   </si>
 </sst>
 </file>
@@ -3012,7 +3010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4458,6 +4456,130 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,7 +4969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5063,12 +5185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5729,12 +5851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5819,12 +5941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7472,7 +7594,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>368</v>
+        <v>813</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -8555,7 +8677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8663,7 +8785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8738,7 +8860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -9115,7 +9237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -9529,12 +9651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9720,7 +9842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -10577,128 +10699,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>